--- a/FOOOF/sample_data/noname_fooof.xlsx
+++ b/FOOOF/sample_data/noname_fooof.xlsx
@@ -542,53 +542,59 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.798052436081243</v>
+        <v>-7.823045914843503</v>
       </c>
       <c r="D2" t="n">
-        <v>1.640452120395991</v>
+        <v>2.081311052263215</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>4.29062485259129</v>
+        <v>24.63314842811768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6284696126031921</v>
+        <v>0.1769775789814556</v>
       </c>
       <c r="H2" t="n">
-        <v>2.529638797000057</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>8.121986105122508</v>
+        <v>30.21629723822836</v>
       </c>
       <c r="J2" t="n">
-        <v>0.427635198865234</v>
+        <v>0.1967791657626954</v>
       </c>
       <c r="K2" t="n">
-        <v>5.011827458788953</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>16.61604710405512</v>
+        <v>33.82822849688478</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2365756009856117</v>
+        <v>0.2297219354959736</v>
       </c>
       <c r="N2" t="n">
-        <v>5.999999999999831</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.67891231362317</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1890053705558703</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="n">
-        <v>2.694953369195262e-09</v>
+        <v>3.722219819153236e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>6.469323532791142e-10</v>
+        <v>9.526647548357212e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.645684784901572e-10</v>
+        <v>3.321995536746793e-11</v>
       </c>
     </row>
     <row r="3">
@@ -598,47 +604,53 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.382765520206698</v>
+        <v>-9.606904415304074</v>
       </c>
       <c r="D3" t="n">
-        <v>1.604060637391342</v>
+        <v>1.486550497843614</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>27.42804183151897</v>
+        <v>27.06107997054038</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3039826528257183</v>
+        <v>0.1741222462777863</v>
       </c>
       <c r="H3" t="n">
-        <v>5.999999999999999</v>
+        <v>5.999999938156031</v>
       </c>
       <c r="I3" t="n">
-        <v>35.73432896484229</v>
+        <v>33.1562837882187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4075794849793972</v>
+        <v>0.2172391448208923</v>
       </c>
       <c r="K3" t="n">
-        <v>5.999999999999999</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>4.841454750153771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37.77107424980785</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.14305932133359</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.690488889875446</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>3.389211161785077e-11</v>
+        <v>2.845426694872399e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>5.466525239458303e-12</v>
+        <v>4.797415704123441e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>3.503879973220809e-12</v>
+        <v>2.752244090919816e-12</v>
       </c>
     </row>
     <row r="4">
@@ -648,27 +660,33 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.472114742222209</v>
+        <v>-9.49389789954564</v>
       </c>
       <c r="D4" t="n">
-        <v>1.603801007715307</v>
+        <v>1.742774771748181</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>34.13967676413017</v>
+        <v>27.96124768984907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4296388059972855</v>
+        <v>0.1813318189199915</v>
       </c>
       <c r="H4" t="n">
         <v>5.999999999999999</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>35.47065244267196</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2841498684958239</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.999999999999999</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -676,13 +694,13 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2.796471561063472e-11</v>
+        <v>2.187755524294706e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>4.832455702276789e-12</v>
+        <v>3.722486687965212e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>2.381534138022077e-12</v>
+        <v>1.621955002259344e-12</v>
       </c>
     </row>
     <row r="5">
@@ -692,27 +710,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.688747955659247</v>
+        <v>-8.300466326324855</v>
       </c>
       <c r="D5" t="n">
-        <v>1.349778772335394</v>
+        <v>1.735433629557581</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>6.036857674105673</v>
+        <v>11.84050025736131</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4597592766827781</v>
+        <v>0.209347967555944</v>
       </c>
       <c r="H5" t="n">
-        <v>5.999999999692288</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1.438602670824668</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.34806025389412</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2642274014569104</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.966537326046565</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -720,13 +744,13 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>4.435542168003921e-10</v>
+        <v>2.727417655873287e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>1.242248737214156e-10</v>
+        <v>8.179853395812589e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>3.6541393370086e-11</v>
+        <v>2.548114455449975e-11</v>
       </c>
     </row>
     <row r="6">
@@ -739,50 +763,50 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.57132882038539</v>
+        <v>-10.31454418370753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4912778206974447</v>
+        <v>0.6777091115007089</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>2.893553766719801</v>
+        <v>10.21756693032627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3786159312101312</v>
+        <v>0.136801980031338</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09893100953626</v>
+        <v>3.074692240759759</v>
       </c>
       <c r="I6" t="n">
-        <v>4.851731694940457</v>
+        <v>28.50535031687881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2384411289731183</v>
+        <v>0.07411529961195917</v>
       </c>
       <c r="K6" t="n">
-        <v>2.16152091820092</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>11.44750708255798</v>
+        <v>32.43155023106097</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09180569350861667</v>
+        <v>0.06851740858556532</v>
       </c>
       <c r="N6" t="n">
-        <v>5.999999999999996</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.406779725270752e-11</v>
+        <v>1.273549323607361e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>8.978807256597666e-12</v>
+        <v>1.086650985401814e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>6.080564453853609e-12</v>
+        <v>6.269696622124493e-12</v>
       </c>
     </row>
   </sheetData>
